--- a/xls/guildUpShopConfig.xlsx
+++ b/xls/guildUpShopConfig.xlsx
@@ -488,7 +488,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,10 +541,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3">
-        <v>1000</v>
+        <v>1200000</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -558,10 +558,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="3">
-        <v>1000</v>
+        <v>2</v>
       </c>
       <c r="D4" s="3">
-        <v>1001</v>
+        <v>2000000</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -575,10 +575,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="3">
-        <v>1001</v>
+        <v>4</v>
       </c>
       <c r="D5" s="3">
-        <v>1002</v>
+        <v>4000000</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -592,10 +592,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="3">
-        <v>1002</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3">
-        <v>1003</v>
+        <v>6000000</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -609,10 +609,10 @@
         <v>31</v>
       </c>
       <c r="C7" s="3">
-        <v>1003</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>1004</v>
+        <v>10000000</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -626,10 +626,10 @@
         <v>32</v>
       </c>
       <c r="C8" s="3">
-        <v>1004</v>
+        <v>32</v>
       </c>
       <c r="D8" s="3">
-        <v>1005</v>
+        <v>35000000</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -643,10 +643,10 @@
         <v>33</v>
       </c>
       <c r="C9" s="3">
-        <v>1005</v>
+        <v>64</v>
       </c>
       <c r="D9" s="3">
-        <v>1006</v>
+        <v>80000000</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
